--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/MVOC/Reigate Priory GLOSS 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1091AC4F-C3FB-5E48-ABD1-605B01C811FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594D69B6-3E85-B64C-A60E-6DC814C659FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15080" yWindow="9080" windowWidth="27640" windowHeight="16940" xr2:uid="{C41B39BD-E22C-6144-A402-A76B97E26116}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Tasks</t>
   </si>
@@ -582,7 +582,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,6 +625,9 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -642,6 +645,9 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/MVOC/Reigate Priory GLOSS 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594D69B6-3E85-B64C-A60E-6DC814C659FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D845B34-2437-5549-887D-B75A29B5D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="9080" windowWidth="27640" windowHeight="16940" xr2:uid="{C41B39BD-E22C-6144-A402-A76B97E26116}"/>
+    <workbookView xWindow="15080" yWindow="9080" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{C41B39BD-E22C-6144-A402-A76B97E26116}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Tasks</t>
   </si>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59972B82-1200-5B44-878C-75235EEE54A7}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C089CF-1CFF-494B-B7D8-DE7B089CB16E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,6 +911,22 @@
         <v>49</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>45437</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>45451</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
